--- a/Excel/Misccredit.xlsx
+++ b/Excel/Misccredit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
   <si>
     <t>Username</t>
   </si>
@@ -243,9 +243,6 @@
     <t>Normal</t>
   </si>
   <si>
-    <t>AED</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -274,6 +271,15 @@
   </si>
   <si>
     <t>QWERS</t>
+  </si>
+  <si>
+    <t>Miscvouchernumber</t>
+  </si>
+  <si>
+    <t>7720010400</t>
+  </si>
+  <si>
+    <t>AEDName</t>
   </si>
 </sst>
 </file>
@@ -294,7 +300,7 @@
       <name val="Myriad pro"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,6 +310,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -358,6 +370,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ2"/>
+  <dimension ref="A1:BA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AG4" sqref="AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -676,7 +694,7 @@
     <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.28515625" customWidth="1"/>
     <col min="19" max="20" width="32" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.85546875" customWidth="1"/>
     <col min="22" max="22" width="10.7109375" customWidth="1"/>
@@ -709,9 +727,10 @@
     <col min="50" max="50" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="1:53">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -865,11 +884,14 @@
       <c r="AY1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AZ1" s="12" t="s">
         <v>51</v>
       </c>
+      <c r="BA1" s="13" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:53">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
@@ -961,43 +983,43 @@
         <v>74</v>
       </c>
       <c r="AE2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AH2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AK2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AK2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AQ2" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="AQ2" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="AR2" s="11" t="s">
         <v>72</v>
@@ -1006,25 +1028,28 @@
         <v>72</v>
       </c>
       <c r="AT2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU2" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="AU2" s="11" t="s">
-        <v>85</v>
-      </c>
       <c r="AV2" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AW2" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AX2" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AY2" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ2" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="AZ2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA2" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Misccredit.xlsx
+++ b/Excel/Misccredit.xlsx
@@ -673,7 +673,7 @@
   <dimension ref="A1:BA2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AG4" sqref="AG4"/>
+      <selection activeCell="AJ14" sqref="AJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Excel/Misccredit.xlsx
+++ b/Excel/Misccredit.xlsx
@@ -672,9 +672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AJ14" sqref="AJ14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
